--- a/data/trans_dic/P22$ss-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,04; 91,89</t>
+          <t>85,81; 91,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,13; 90,22</t>
+          <t>83,18; 90,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,84; 88,05</t>
+          <t>80,34; 87,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87,86; 93,14</t>
+          <t>88,16; 92,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,35; 92,34</t>
+          <t>85,44; 92,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,59; 92,55</t>
+          <t>85,21; 92,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,8; 91,12</t>
+          <t>83,73; 90,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,16; 92,64</t>
+          <t>88,08; 92,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,76; 91,3</t>
+          <t>86,57; 91,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>85,22; 90,49</t>
+          <t>85,34; 90,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>83,38; 88,32</t>
+          <t>83,12; 88,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,89; 92,23</t>
+          <t>88,92; 92,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,23; 91,03</t>
+          <t>84,07; 91,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,82; 86,63</t>
+          <t>77,76; 86,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,18; 88,5</t>
+          <t>80,43; 88,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,0; 91,98</t>
+          <t>86,33; 92,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,48; 96,49</t>
+          <t>90,92; 96,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,65; 95,38</t>
+          <t>88,45; 95,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,77; 95,35</t>
+          <t>89,79; 95,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,58; 96,19</t>
+          <t>92,46; 96,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,67; 92,96</t>
+          <t>88,59; 93,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,12; 89,89</t>
+          <t>83,97; 89,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>85,99; 90,91</t>
+          <t>86,05; 90,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>89,97; 93,33</t>
+          <t>89,58; 93,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,8; 99,67</t>
+          <t>97,79; 99,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,75; 99,7</t>
+          <t>97,83; 99,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,45; 99,68</t>
+          <t>97,44; 99,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>99,85; 100,0</t>
+          <t>99,88; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,31; 98,03</t>
+          <t>91,53; 98,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,76; 98,52</t>
+          <t>93,59; 98,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>93,75; 99,38</t>
+          <t>93,46; 99,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,41; 99,6</t>
+          <t>96,6; 99,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>96,9; 99,07</t>
+          <t>96,95; 99,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>97,32; 99,2</t>
+          <t>97,2; 99,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>97,22; 99,41</t>
+          <t>97,18; 99,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>99,21; 99,94</t>
+          <t>99,3; 99,97</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,05; 99,35</t>
+          <t>98,03; 99,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,93; 99,83</t>
+          <t>99,0; 99,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,21; 98,94</t>
+          <t>97,18; 98,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>98,35; 99,61</t>
+          <t>98,29; 99,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,06; 97,89</t>
+          <t>95,01; 97,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,27; 98,79</t>
+          <t>96,29; 98,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,7; 98,73</t>
+          <t>96,54; 98,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>98,75; 99,72</t>
+          <t>98,7; 99,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>97,41; 98,69</t>
+          <t>97,33; 98,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>98,2; 99,23</t>
+          <t>98,21; 99,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>97,32; 98,62</t>
+          <t>97,31; 98,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,71; 99,5</t>
+          <t>98,74; 99,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,42; 98,34</t>
+          <t>94,04; 98,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>97,5; 99,58</t>
+          <t>97,48; 99,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>98,44; 99,83</t>
+          <t>98,34; 99,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>98,81; 99,97</t>
+          <t>98,79; 99,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>94,48; 97,92</t>
+          <t>94,71; 98,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>97,79; 99,47</t>
+          <t>97,47; 99,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>98,47; 99,87</t>
+          <t>98,52; 99,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,55; 99,61</t>
+          <t>98,51; 99,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>95,12; 97,72</t>
+          <t>95,28; 97,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>97,96; 99,28</t>
+          <t>98,01; 99,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>98,76; 99,7</t>
+          <t>98,82; 99,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>98,87; 99,64</t>
+          <t>98,92; 99,68</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>93,29; 98,05</t>
+          <t>93,36; 97,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,81; 97,11</t>
+          <t>90,47; 96,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,63; 98,21</t>
+          <t>93,76; 98,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>88,76; 98,62</t>
+          <t>88,44; 98,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>94,71; 97,02</t>
+          <t>94,81; 97,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,32; 97,73</t>
+          <t>95,37; 97,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>96,2; 98,25</t>
+          <t>96,12; 98,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,69; 98,2</t>
+          <t>95,63; 98,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>95,04; 97,0</t>
+          <t>94,93; 96,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>95,01; 97,3</t>
+          <t>94,92; 97,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>96,07; 97,96</t>
+          <t>96,15; 98,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>94,82; 97,9</t>
+          <t>94,97; 97,85</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,12; 96,59</t>
+          <t>95,02; 96,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>94,42; 96,08</t>
+          <t>94,38; 96,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>94,29; 95,85</t>
+          <t>94,36; 95,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,78; 97,37</t>
+          <t>95,73; 97,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,65; 96,11</t>
+          <t>94,68; 96,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,55; 97,01</t>
+          <t>95,61; 97,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,78; 97,08</t>
+          <t>95,78; 97,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>96,65; 97,79</t>
+          <t>96,64; 97,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>95,06; 96,08</t>
+          <t>95,06; 96,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>95,27; 96,38</t>
+          <t>95,28; 96,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>95,28; 96,3</t>
+          <t>95,22; 96,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>96,4; 97,43</t>
+          <t>96,38; 97,38</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguridad Social</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>421622</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>380800</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>362806</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>459482</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>273625</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>281059</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>304501</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>405241</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>695247</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>661859</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>667307</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>864723</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>405265; 433690</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>363685; 393501</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>344732; 376997</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>445401; 469751</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>262033; 283896</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>267955; 291744</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>290590; 314265</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>394123; 414669</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>674342; 710669</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>641502; 679670</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>645119; 686401</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>847128; 880906</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>322544</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>345882</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>319709</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>403926</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>350152</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>312841</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>345579</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>362081</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>672696</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>658723</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>665289</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>766007</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>308495; 334999</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>325665; 362864</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>302610; 333405</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>390415; 416337</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>338095; 358388</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>298977; 322612</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>334271; 355040</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>353729; 368724</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>654478; 687481</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>635509; 677793</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>644112; 680207</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>747798; 779994</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>823</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>536478</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>623651</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>516407</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>668100</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>160468</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>252072</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>161860</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>164515</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>696946</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>875723</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>678267</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>832614</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>529580; 539836</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>615783; 627530</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>508542; 520268</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>667432; 668264</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>153568; 164485</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>243461; 256986</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>155253; 165084</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>161239; 166231</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>687697; 702878</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>864650; 881896</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>668656; 683377</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>829358; 834944</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2325</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1220685</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1152273</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1127604</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1025610</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>691586</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>749526</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>804334</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>970960</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1912271</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1901799</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1931938</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1996569</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1210832; 1226899</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1146482; 1156085</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1116263; 1135630</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1017166; 1030558</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>678608; 699424</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>738237; 757172</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>793874; 811430</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>965365; 975138</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1897494; 1923272</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1890183; 1910903</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1918074; 1943725</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1987563; 2003247</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1278</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1175</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1822</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>339206</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>504589</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>615315</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>473248</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>549270</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>752101</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>732914</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>832310</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>888476</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1256690</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1348229</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1305557</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>329677; 344307</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>497732; 508064</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>609248; 618469</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>469311; 474880</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>538647; 557764</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>742256; 756450</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>726347; 736094</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>826519; 835930</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>875886; 899108</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1246770; 1263013</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1340800; 1353104</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1299890; 1309806</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1481</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1264</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1228</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>285704</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>251997</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>276751</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>229354</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1197254</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1072663</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1052273</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>740272</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1482958</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1324660</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1329024</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>969626</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>277521; 291064</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>241445; 258756</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>269235; 281982</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>212709; 237529</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1182000; 1209477</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1057962; 1084175</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1038837; 1061687</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>728087; 747075</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1465651; 1496332</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1306340; 1338545</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1315264; 1341095</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>951439; 980352</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3068</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3067</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3174</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3180</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3205</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>6217</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>6247</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>6277</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>8255</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3126239</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3259192</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3218592</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3259718</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3222356</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3420263</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3401462</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3475378</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6348594</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>6679454</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>6620054</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>6735097</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3101164; 3147145</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3228766; 3287180</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3191717; 3242878</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3231972; 3287057</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3196587; 3247180</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3394147; 3443960</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3376945; 3420201</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3455327; 3496363</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6312133; 6380561</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6641916; 6714011</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6578379; 6650402</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>6699529; 6769650</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P22$ss-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
